--- a/ocms/src/test/resources/TestData/SkillTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillTemplateData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\scripts\ocms\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC4F65-111C-44D9-8621-8FFAD262DD4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="6" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Template Name</t>
   </si>
@@ -119,9 +120,6 @@
     <t>1,9</t>
   </si>
   <si>
-    <t xml:space="preserve">Delete Reason </t>
-  </si>
-  <si>
     <t>Deleted</t>
   </si>
   <si>
@@ -162,12 +160,24 @@
   </si>
   <si>
     <t>EmailSkill &lt;31097&gt;</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>VideoSkill1 &lt;49017&gt;,VideoSkill1 &lt;49040&gt;</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +527,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -529,7 +539,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -593,11 +603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,9 +617,10 @@
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="26.109375" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,10 +636,13 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -637,10 +651,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -649,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,12 +699,12 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -702,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -711,10 +728,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -746,13 +763,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -763,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -774,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -804,15 +821,15 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -820,7 +837,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/src/test/resources/TestData/SkillTemplateData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillTemplateData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC4F65-111C-44D9-8621-8FFAD262DD4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE14A0C-7B08-4572-A71F-14355EA0457D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Template Name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>AudioSkill-1 &lt;49051&gt;,</t>
   </si>
   <si>
-    <t>VideoSkill1 &lt;49017&gt;,VideoSkill1 &lt;49111&gt;</t>
-  </si>
-  <si>
     <t>EmailSkill8 &lt;49008&gt;,EmailSkill10 &lt;49010&gt;</t>
   </si>
   <si>
@@ -141,15 +138,6 @@
     <t>VoiceSkill14 &lt;49014&gt;</t>
   </si>
   <si>
-    <t>CHAT &lt;49001&gt;</t>
-  </si>
-  <si>
-    <t>AudioSkill-1 &lt;49051&gt;</t>
-  </si>
-  <si>
-    <t>VideoSkill1 &lt;49017&gt;</t>
-  </si>
-  <si>
     <t>FaxSkill-1 &lt;49012&gt;</t>
   </si>
   <si>
@@ -159,19 +147,28 @@
     <t>SmsSkill1 &lt;49019&gt;</t>
   </si>
   <si>
-    <t>EmailSkill &lt;31097&gt;</t>
-  </si>
-  <si>
     <t>Modify Reason</t>
   </si>
   <si>
     <t>Modified</t>
   </si>
   <si>
-    <t>VideoSkill1 &lt;49017&gt;,VideoSkill1 &lt;49040&gt;</t>
-  </si>
-  <si>
     <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>ChatbotWQ &lt;1391525&gt;</t>
+  </si>
+  <si>
+    <t>Audio Chat1 &lt;1390301&gt;</t>
+  </si>
+  <si>
+    <t>Video Chat2 &lt;1390402&gt;</t>
+  </si>
+  <si>
+    <t>EmailRouteSkill &lt;41000&gt;</t>
+  </si>
+  <si>
+    <t>VideoSkill2 &lt;49018&gt;,VideoSkill1 &lt;49040&gt;</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,18 +513,18 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -539,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -550,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,10 +566,10 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,10 +577,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -591,10 +588,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +604,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,21 +625,21 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -654,10 +651,10 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +667,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,21 +687,21 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -713,13 +710,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +729,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,24 +749,24 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,7 +777,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -791,7 +788,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -810,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -821,15 +818,15 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -837,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
